--- a/dc3/DC-3-Formato2.xlsx
+++ b/dc3/DC-3-Formato2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecamp\Devs\Python_Tools\dc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7989B13-B368-4698-8D47-66BFC334C371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1DE06B-BC20-4C9A-8ADB-303824DDC1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
-  <si>
-    <t>En este espacio la empresa puede imprimir su logotipo y, en su caso, también se puede imprimir el del agente capacitador externo.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>FORMATO DC-3
 CONSTANCIA DE COMPETENCIAS O DE HABILIDADES LABORALES</t>
@@ -115,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -126,38 +123,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,6 +169,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,12 +177,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +193,27 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -208,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -309,11 +337,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -343,55 +455,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -401,7 +466,63 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,6 +538,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>127264</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>32846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>118242</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B050B7B9-316F-4503-A75C-DFC685047C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3713919" y="197070"/>
+          <a:ext cx="897495" cy="604344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,8 +799,8 @@
   </sheetPr>
   <dimension ref="A1:BB940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="AZ41" sqref="AZ41"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -688,9 +864,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="I3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
@@ -734,6 +908,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
+      <c r="AG5" s="32"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
@@ -773,46 +948,46 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="G8" s="21" t="s">
-        <v>1</v>
+      <c r="G8" s="48" t="s">
+        <v>0</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
@@ -839,51 +1014,51 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="31" t="s">
-        <v>2</v>
+      <c r="E10" s="47" t="s">
+        <v>1</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="23"/>
-      <c r="AO10" s="23"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="23"/>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="23"/>
-      <c r="AU10" s="23"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
@@ -897,49 +1072,49 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="23"/>
-      <c r="AP11" s="23"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
@@ -953,51 +1128,51 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="37" t="s">
-        <v>3</v>
+      <c r="E12" s="50" t="s">
+        <v>2</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
-      <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="27"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="37"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -1011,49 +1186,49 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="23"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="23"/>
-      <c r="AN13" s="23"/>
-      <c r="AO13" s="23"/>
-      <c r="AP13" s="23"/>
-      <c r="AQ13" s="23"/>
-      <c r="AR13" s="23"/>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="29"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="40"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
@@ -1069,46 +1244,46 @@
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
       <c r="AU14" s="6"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
@@ -1123,53 +1298,53 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="27"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="37"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
@@ -1183,49 +1358,49 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="29"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="40"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
@@ -1239,49 +1414,49 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="33"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="31"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="43"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="22"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
@@ -1295,51 +1470,51 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="25" t="s">
-        <v>6</v>
+      <c r="E18" s="52" t="s">
+        <v>5</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="27"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="55"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
@@ -1353,49 +1528,49 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
-      <c r="AQ19" s="23"/>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="29"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="58"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
@@ -1411,46 +1586,46 @@
       <c r="D20" s="1"/>
       <c r="E20" s="10"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="21"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="21"/>
+      <c r="AT20" s="21"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
@@ -1478,51 +1653,51 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="31" t="s">
-        <v>7</v>
+      <c r="E22" s="47" t="s">
+        <v>6</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
-      <c r="AQ22" s="23"/>
-      <c r="AR22" s="23"/>
-      <c r="AS22" s="23"/>
-      <c r="AT22" s="23"/>
-      <c r="AU22" s="23"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
@@ -1536,49 +1711,49 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="23"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="23"/>
-      <c r="AQ23" s="23"/>
-      <c r="AR23" s="23"/>
-      <c r="AS23" s="23"/>
-      <c r="AT23" s="23"/>
-      <c r="AU23" s="23"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
@@ -1592,51 +1767,51 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="25" t="s">
-        <v>8</v>
+      <c r="E24" s="46" t="s">
+        <v>7</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="26"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="27"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="37"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
@@ -1650,49 +1825,49 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="29"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="40"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
@@ -1708,46 +1883,46 @@
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="42"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="42"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="21"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="21"/>
+      <c r="AT26" s="21"/>
       <c r="AU26" s="6"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
@@ -1762,51 +1937,51 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="25" t="s">
-        <v>9</v>
+      <c r="E27" s="46" t="s">
+        <v>8</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="26"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="26"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="26"/>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="27"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="37"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
@@ -1820,49 +1995,49 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="23"/>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="23"/>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
-      <c r="AU28" s="29"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="40"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
@@ -1876,8 +2051,8 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -1890,8 +2065,8 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="43"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="22"/>
       <c r="U29" s="8"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
@@ -1945,51 +2120,51 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="31" t="s">
-        <v>10</v>
+      <c r="E31" s="47" t="s">
+        <v>9</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="23"/>
-      <c r="AJ31" s="23"/>
-      <c r="AK31" s="23"/>
-      <c r="AL31" s="23"/>
-      <c r="AM31" s="23"/>
-      <c r="AN31" s="23"/>
-      <c r="AO31" s="23"/>
-      <c r="AP31" s="23"/>
-      <c r="AQ31" s="23"/>
-      <c r="AR31" s="23"/>
-      <c r="AS31" s="23"/>
-      <c r="AT31" s="23"/>
-      <c r="AU31" s="23"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="39"/>
+      <c r="AT31" s="39"/>
+      <c r="AU31" s="39"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
@@ -2003,49 +2178,49 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
-      <c r="AG32" s="23"/>
-      <c r="AH32" s="23"/>
-      <c r="AI32" s="23"/>
-      <c r="AJ32" s="23"/>
-      <c r="AK32" s="23"/>
-      <c r="AL32" s="23"/>
-      <c r="AM32" s="23"/>
-      <c r="AN32" s="23"/>
-      <c r="AO32" s="23"/>
-      <c r="AP32" s="23"/>
-      <c r="AQ32" s="23"/>
-      <c r="AR32" s="23"/>
-      <c r="AS32" s="23"/>
-      <c r="AT32" s="23"/>
-      <c r="AU32" s="23"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
@@ -2059,51 +2234,51 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="25" t="s">
-        <v>11</v>
+      <c r="E33" s="46" t="s">
+        <v>10</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="26"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="26"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="27"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="36"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="36"/>
+      <c r="AR33" s="36"/>
+      <c r="AS33" s="36"/>
+      <c r="AT33" s="36"/>
+      <c r="AU33" s="37"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
@@ -2117,49 +2292,49 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
-      <c r="AQ34" s="23"/>
-      <c r="AR34" s="23"/>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="23"/>
-      <c r="AU34" s="29"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39"/>
+      <c r="AM34" s="39"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="39"/>
+      <c r="AQ34" s="39"/>
+      <c r="AR34" s="39"/>
+      <c r="AS34" s="39"/>
+      <c r="AT34" s="39"/>
+      <c r="AU34" s="40"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
@@ -2179,43 +2354,43 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="42"/>
-      <c r="AJ35" s="42"/>
-      <c r="AK35" s="42"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="42"/>
-      <c r="AN35" s="42"/>
-      <c r="AO35" s="42"/>
-      <c r="AP35" s="42"/>
-      <c r="AQ35" s="42"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="42"/>
-      <c r="AT35" s="42"/>
-      <c r="AU35" s="43"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="21"/>
+      <c r="AQ35" s="21"/>
+      <c r="AR35" s="21"/>
+      <c r="AS35" s="21"/>
+      <c r="AT35" s="21"/>
+      <c r="AU35" s="22"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
@@ -2229,65 +2404,65 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="25" t="s">
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="32" t="s">
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="32" t="s">
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="27"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="37"/>
       <c r="AH36" s="13"/>
       <c r="AI36" s="12"/>
-      <c r="AJ36" s="32" t="s">
+      <c r="AJ36" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="32" t="s">
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="27"/>
-      <c r="AR36" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="27"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="37"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
@@ -2301,46 +2476,46 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="29"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="40"/>
       <c r="AH37" s="14"/>
-      <c r="AJ37" s="28"/>
-      <c r="AK37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="29"/>
-      <c r="AN37" s="28"/>
-      <c r="AO37" s="23"/>
-      <c r="AP37" s="23"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="28"/>
-      <c r="AS37" s="23"/>
-      <c r="AT37" s="23"/>
-      <c r="AU37" s="29"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="40"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="39"/>
+      <c r="AQ37" s="40"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="39"/>
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="40"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
@@ -2354,53 +2529,53 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="39" t="s">
-        <v>17</v>
+      <c r="E38" s="23"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="33" t="s">
+        <v>16</v>
       </c>
-      <c r="U38" s="33"/>
+      <c r="U38" s="34"/>
       <c r="V38" s="15"/>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="43"/>
-      <c r="AH38" s="40" t="s">
-        <v>18</v>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="41" t="s">
+        <v>17</v>
       </c>
-      <c r="AI38" s="30"/>
+      <c r="AI38" s="42"/>
       <c r="AJ38" s="16"/>
       <c r="AK38" s="16"/>
       <c r="AL38" s="16"/>
       <c r="AM38" s="16"/>
-      <c r="AN38" s="44"/>
-      <c r="AO38" s="43"/>
-      <c r="AP38" s="44"/>
-      <c r="AQ38" s="43"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="23"/>
+      <c r="AQ38" s="22"/>
       <c r="AR38" s="20"/>
-      <c r="AS38" s="42"/>
-      <c r="AT38" s="44"/>
-      <c r="AU38" s="43"/>
+      <c r="AS38" s="21"/>
+      <c r="AT38" s="23"/>
+      <c r="AU38" s="22"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
@@ -2414,51 +2589,51 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="25" t="s">
-        <v>19</v>
+      <c r="E39" s="46" t="s">
+        <v>18</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="26"/>
-      <c r="AR39" s="26"/>
-      <c r="AS39" s="26"/>
-      <c r="AT39" s="26"/>
-      <c r="AU39" s="27"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="36"/>
+      <c r="AM39" s="36"/>
+      <c r="AN39" s="36"/>
+      <c r="AO39" s="36"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="36"/>
+      <c r="AR39" s="36"/>
+      <c r="AS39" s="36"/>
+      <c r="AT39" s="36"/>
+      <c r="AU39" s="37"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
@@ -2472,49 +2647,49 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="23"/>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="23"/>
-      <c r="AL40" s="23"/>
-      <c r="AM40" s="23"/>
-      <c r="AN40" s="23"/>
-      <c r="AO40" s="23"/>
-      <c r="AP40" s="23"/>
-      <c r="AQ40" s="23"/>
-      <c r="AR40" s="23"/>
-      <c r="AS40" s="23"/>
-      <c r="AT40" s="23"/>
-      <c r="AU40" s="29"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="39"/>
+      <c r="AM40" s="39"/>
+      <c r="AN40" s="39"/>
+      <c r="AO40" s="39"/>
+      <c r="AP40" s="39"/>
+      <c r="AQ40" s="39"/>
+      <c r="AR40" s="39"/>
+      <c r="AS40" s="39"/>
+      <c r="AT40" s="39"/>
+      <c r="AU40" s="40"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
@@ -2533,44 +2708,44 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="42"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="42"/>
-      <c r="AB41" s="42"/>
-      <c r="AC41" s="42"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="42"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="42"/>
-      <c r="AJ41" s="42"/>
-      <c r="AK41" s="42"/>
-      <c r="AL41" s="42"/>
-      <c r="AM41" s="42"/>
-      <c r="AN41" s="42"/>
-      <c r="AO41" s="42"/>
-      <c r="AP41" s="42"/>
-      <c r="AQ41" s="42"/>
-      <c r="AR41" s="42"/>
-      <c r="AS41" s="42"/>
-      <c r="AT41" s="42"/>
-      <c r="AU41" s="43"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="22"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
@@ -2584,51 +2759,51 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="25" t="s">
-        <v>20</v>
+      <c r="E42" s="46" t="s">
+        <v>19</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="26"/>
-      <c r="AN42" s="26"/>
-      <c r="AO42" s="26"/>
-      <c r="AP42" s="26"/>
-      <c r="AQ42" s="26"/>
-      <c r="AR42" s="26"/>
-      <c r="AS42" s="26"/>
-      <c r="AT42" s="26"/>
-      <c r="AU42" s="27"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="36"/>
+      <c r="AN42" s="36"/>
+      <c r="AO42" s="36"/>
+      <c r="AP42" s="36"/>
+      <c r="AQ42" s="36"/>
+      <c r="AR42" s="36"/>
+      <c r="AS42" s="36"/>
+      <c r="AT42" s="36"/>
+      <c r="AU42" s="37"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
@@ -2642,49 +2817,49 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="23"/>
-      <c r="AE43" s="23"/>
-      <c r="AF43" s="23"/>
-      <c r="AG43" s="23"/>
-      <c r="AH43" s="23"/>
-      <c r="AI43" s="23"/>
-      <c r="AJ43" s="23"/>
-      <c r="AK43" s="23"/>
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="23"/>
-      <c r="AO43" s="23"/>
-      <c r="AP43" s="23"/>
-      <c r="AQ43" s="23"/>
-      <c r="AR43" s="23"/>
-      <c r="AS43" s="23"/>
-      <c r="AT43" s="23"/>
-      <c r="AU43" s="29"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
+      <c r="AM43" s="39"/>
+      <c r="AN43" s="39"/>
+      <c r="AO43" s="39"/>
+      <c r="AP43" s="39"/>
+      <c r="AQ43" s="39"/>
+      <c r="AR43" s="39"/>
+      <c r="AS43" s="39"/>
+      <c r="AT43" s="39"/>
+      <c r="AU43" s="40"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
@@ -2704,43 +2879,43 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="20"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="42"/>
-      <c r="AB44" s="42"/>
-      <c r="AC44" s="42"/>
-      <c r="AD44" s="42"/>
-      <c r="AE44" s="42"/>
-      <c r="AF44" s="42"/>
-      <c r="AG44" s="42"/>
-      <c r="AH44" s="42"/>
-      <c r="AI44" s="42"/>
-      <c r="AJ44" s="42"/>
-      <c r="AK44" s="42"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="42"/>
-      <c r="AO44" s="42"/>
-      <c r="AP44" s="42"/>
-      <c r="AQ44" s="42"/>
-      <c r="AR44" s="42"/>
-      <c r="AS44" s="42"/>
-      <c r="AT44" s="42"/>
-      <c r="AU44" s="43"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="21"/>
+      <c r="AQ44" s="21"/>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="21"/>
+      <c r="AT44" s="21"/>
+      <c r="AU44" s="22"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
@@ -2823,51 +2998,51 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="41" t="s">
-        <v>21</v>
+      <c r="E47" s="44" t="s">
+        <v>20</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="23"/>
-      <c r="AG47" s="23"/>
-      <c r="AH47" s="23"/>
-      <c r="AI47" s="23"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23"/>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23"/>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-      <c r="AT47" s="23"/>
-      <c r="AU47" s="29"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39"/>
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="39"/>
+      <c r="AS47" s="39"/>
+      <c r="AT47" s="39"/>
+      <c r="AU47" s="40"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
@@ -2881,51 +3056,51 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="41" t="s">
-        <v>22</v>
+      <c r="E48" s="44" t="s">
+        <v>21</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="23"/>
-      <c r="AD48" s="23"/>
-      <c r="AE48" s="23"/>
-      <c r="AF48" s="23"/>
-      <c r="AG48" s="23"/>
-      <c r="AH48" s="23"/>
-      <c r="AI48" s="23"/>
-      <c r="AJ48" s="23"/>
-      <c r="AK48" s="23"/>
-      <c r="AL48" s="23"/>
-      <c r="AM48" s="23"/>
-      <c r="AN48" s="23"/>
-      <c r="AO48" s="23"/>
-      <c r="AP48" s="23"/>
-      <c r="AQ48" s="23"/>
-      <c r="AR48" s="23"/>
-      <c r="AS48" s="23"/>
-      <c r="AT48" s="23"/>
-      <c r="AU48" s="29"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="39"/>
+      <c r="AM48" s="39"/>
+      <c r="AN48" s="39"/>
+      <c r="AO48" s="39"/>
+      <c r="AP48" s="39"/>
+      <c r="AQ48" s="39"/>
+      <c r="AR48" s="39"/>
+      <c r="AS48" s="39"/>
+      <c r="AT48" s="39"/>
+      <c r="AU48" s="40"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
@@ -2970,42 +3145,42 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="14"/>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="U51" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="U51" s="22" t="s">
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
+      <c r="AH51" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="23"/>
-      <c r="AD51" s="23"/>
-      <c r="AH51" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI51" s="23"/>
-      <c r="AJ51" s="23"/>
-      <c r="AK51" s="23"/>
-      <c r="AL51" s="23"/>
-      <c r="AM51" s="23"/>
-      <c r="AN51" s="23"/>
-      <c r="AO51" s="23"/>
-      <c r="AP51" s="23"/>
-      <c r="AQ51" s="23"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39"/>
+      <c r="AL51" s="39"/>
+      <c r="AM51" s="39"/>
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="39"/>
+      <c r="AP51" s="39"/>
+      <c r="AQ51" s="39"/>
       <c r="AU51" s="18"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
@@ -3036,42 +3211,42 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="14"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="42"/>
-      <c r="AB53" s="42"/>
-      <c r="AC53" s="42"/>
-      <c r="AD53" s="42"/>
-      <c r="AE53" s="42"/>
-      <c r="AG53" s="46"/>
-      <c r="AH53" s="42"/>
-      <c r="AI53" s="42"/>
-      <c r="AJ53" s="42"/>
-      <c r="AK53" s="42"/>
-      <c r="AL53" s="42"/>
-      <c r="AM53" s="42"/>
-      <c r="AN53" s="42"/>
-      <c r="AO53" s="42"/>
-      <c r="AP53" s="42"/>
-      <c r="AQ53" s="42"/>
-      <c r="AR53" s="42"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+      <c r="AC53" s="21"/>
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="21"/>
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="21"/>
+      <c r="AI53" s="21"/>
+      <c r="AJ53" s="21"/>
+      <c r="AK53" s="21"/>
+      <c r="AL53" s="21"/>
+      <c r="AM53" s="21"/>
+      <c r="AN53" s="21"/>
+      <c r="AO53" s="21"/>
+      <c r="AP53" s="21"/>
+      <c r="AQ53" s="21"/>
+      <c r="AR53" s="21"/>
       <c r="AU53" s="18"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="1"/>
@@ -3102,42 +3277,42 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="14"/>
-      <c r="H55" s="22" t="s">
-        <v>26</v>
+      <c r="H55" s="45" t="s">
+        <v>25</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="U55" s="22" t="s">
-        <v>26</v>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="U55" s="45" t="s">
+        <v>25</v>
       </c>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="23"/>
-      <c r="AH55" s="22" t="s">
-        <v>26</v>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AH55" s="45" t="s">
+        <v>25</v>
       </c>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="23"/>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="23"/>
-      <c r="AO55" s="23"/>
-      <c r="AP55" s="23"/>
-      <c r="AQ55" s="23"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39"/>
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="39"/>
+      <c r="AP55" s="39"/>
+      <c r="AQ55" s="39"/>
       <c r="AU55" s="18"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="1"/>
@@ -3153,36 +3328,36 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="14"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="23"/>
-      <c r="AD56" s="23"/>
-      <c r="AH56" s="23"/>
-      <c r="AI56" s="23"/>
-      <c r="AJ56" s="23"/>
-      <c r="AK56" s="23"/>
-      <c r="AL56" s="23"/>
-      <c r="AM56" s="23"/>
-      <c r="AN56" s="23"/>
-      <c r="AO56" s="23"/>
-      <c r="AP56" s="23"/>
-      <c r="AQ56" s="23"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AH56" s="39"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="39"/>
+      <c r="AL56" s="39"/>
+      <c r="AM56" s="39"/>
+      <c r="AN56" s="39"/>
+      <c r="AO56" s="39"/>
+      <c r="AP56" s="39"/>
+      <c r="AQ56" s="39"/>
       <c r="AU56" s="18"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
@@ -3266,50 +3441,50 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="24" t="s">
-        <v>27</v>
+      <c r="E59" s="43" t="s">
+        <v>26</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23"/>
-      <c r="Z59" s="23"/>
-      <c r="AA59" s="23"/>
-      <c r="AB59" s="23"/>
-      <c r="AC59" s="23"/>
-      <c r="AD59" s="23"/>
-      <c r="AE59" s="23"/>
-      <c r="AF59" s="23"/>
-      <c r="AG59" s="23"/>
-      <c r="AH59" s="23"/>
-      <c r="AI59" s="23"/>
-      <c r="AJ59" s="23"/>
-      <c r="AK59" s="23"/>
-      <c r="AL59" s="23"/>
-      <c r="AM59" s="23"/>
-      <c r="AN59" s="23"/>
-      <c r="AO59" s="23"/>
-      <c r="AP59" s="23"/>
-      <c r="AQ59" s="23"/>
-      <c r="AR59" s="23"/>
-      <c r="AS59" s="23"/>
-      <c r="AT59" s="23"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="39"/>
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="39"/>
+      <c r="AK59" s="39"/>
+      <c r="AL59" s="39"/>
+      <c r="AM59" s="39"/>
+      <c r="AN59" s="39"/>
+      <c r="AO59" s="39"/>
+      <c r="AP59" s="39"/>
+      <c r="AQ59" s="39"/>
+      <c r="AR59" s="39"/>
+      <c r="AS59" s="39"/>
+      <c r="AT59" s="39"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
@@ -3323,50 +3498,50 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="24" t="s">
-        <v>28</v>
+      <c r="E60" s="43" t="s">
+        <v>27</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="23"/>
-      <c r="Z60" s="23"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="23"/>
-      <c r="AC60" s="23"/>
-      <c r="AD60" s="23"/>
-      <c r="AE60" s="23"/>
-      <c r="AF60" s="23"/>
-      <c r="AG60" s="23"/>
-      <c r="AH60" s="23"/>
-      <c r="AI60" s="23"/>
-      <c r="AJ60" s="23"/>
-      <c r="AK60" s="23"/>
-      <c r="AL60" s="23"/>
-      <c r="AM60" s="23"/>
-      <c r="AN60" s="23"/>
-      <c r="AO60" s="23"/>
-      <c r="AP60" s="23"/>
-      <c r="AQ60" s="23"/>
-      <c r="AR60" s="23"/>
-      <c r="AS60" s="23"/>
-      <c r="AT60" s="23"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="39"/>
+      <c r="AE60" s="39"/>
+      <c r="AF60" s="39"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="39"/>
+      <c r="AK60" s="39"/>
+      <c r="AL60" s="39"/>
+      <c r="AM60" s="39"/>
+      <c r="AN60" s="39"/>
+      <c r="AO60" s="39"/>
+      <c r="AP60" s="39"/>
+      <c r="AQ60" s="39"/>
+      <c r="AR60" s="39"/>
+      <c r="AS60" s="39"/>
+      <c r="AT60" s="39"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
@@ -8128,7 +8303,29 @@
       <c r="BB940" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="33">
+    <mergeCell ref="V36:Y37"/>
+    <mergeCell ref="E31:AU32"/>
+    <mergeCell ref="E33:AU34"/>
+    <mergeCell ref="G8:AR8"/>
+    <mergeCell ref="H55:Q56"/>
+    <mergeCell ref="U55:AD56"/>
+    <mergeCell ref="AH55:AQ56"/>
+    <mergeCell ref="E36:O37"/>
+    <mergeCell ref="P36:S38"/>
+    <mergeCell ref="E10:AU11"/>
+    <mergeCell ref="E12:AU13"/>
+    <mergeCell ref="E15:Y16"/>
+    <mergeCell ref="Z15:AU16"/>
+    <mergeCell ref="E18:AU19"/>
+    <mergeCell ref="E22:AU23"/>
+    <mergeCell ref="E24:AU25"/>
+    <mergeCell ref="E27:AU28"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="AD36:AG37"/>
+    <mergeCell ref="AJ36:AM37"/>
+    <mergeCell ref="AH38:AI38"/>
+    <mergeCell ref="E60:AT60"/>
     <mergeCell ref="E48:AU48"/>
     <mergeCell ref="H51:Q51"/>
     <mergeCell ref="U51:AD51"/>
@@ -8136,37 +8333,14 @@
     <mergeCell ref="E39:AU40"/>
     <mergeCell ref="E42:AU43"/>
     <mergeCell ref="E47:AU47"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="AD36:AG37"/>
-    <mergeCell ref="AJ36:AM37"/>
-    <mergeCell ref="AH38:AI38"/>
-    <mergeCell ref="E60:AT60"/>
-    <mergeCell ref="E18:AU19"/>
-    <mergeCell ref="E22:AU23"/>
-    <mergeCell ref="E24:AU25"/>
-    <mergeCell ref="E27:AU28"/>
-    <mergeCell ref="V36:Y37"/>
     <mergeCell ref="Z36:AC37"/>
     <mergeCell ref="AN36:AQ37"/>
     <mergeCell ref="AR36:AU37"/>
-    <mergeCell ref="E31:AU32"/>
-    <mergeCell ref="E33:AU34"/>
-    <mergeCell ref="G8:AR8"/>
-    <mergeCell ref="H55:Q56"/>
-    <mergeCell ref="U55:AD56"/>
-    <mergeCell ref="AH55:AQ56"/>
     <mergeCell ref="E59:AT59"/>
-    <mergeCell ref="E36:O37"/>
-    <mergeCell ref="P36:S38"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="E10:AU11"/>
-    <mergeCell ref="E12:AU13"/>
-    <mergeCell ref="E15:Y16"/>
-    <mergeCell ref="Z15:AU16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>